--- a/FORO_REGIONAL_DA_TRISTEZA.xlsx
+++ b/FORO_REGIONAL_DA_TRISTEZA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98D6A5AE-6597-4273-AE5E-6B3FA627C27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D000500D-F229-4DD4-BB3C-434DBD1A96C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1147,7 +1147,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{12A08437-7DE5-4DDF-B6C0-6FE7E85EA838}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{5B463002-A09A-43AC-862A-64FA61122849}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1177,10 +1177,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93D02608-4B57-485B-BF62-E0E6A66C5B15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AAA0048-0D4B-4DB0-AF45-87B706FF6294}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1218,7 +1218,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD51247-5CE4-49DA-AF37-4991AC135775}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCBD577-4CE5-4277-9F9B-8874FCB89E15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1281,7 +1281,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7B8E49F-E773-4DAB-946A-2F4F3FF84111}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EC33FD5-7859-4138-9CAE-F1F13D52D054}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1300,7 +1300,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BC82928-95B8-F3A2-4B55-5CAB20107CC7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED3DFF8E-2DE0-3EA8-C7E2-ACC4F70F0CF8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1349,7 +1349,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68B3F952-72FE-6432-BB0B-9FADD998F977}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CC1E26C-978D-722C-4835-2F817AAF20B8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1368,7 +1368,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90F437B7-AB32-8104-C706-502EA05938E8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D66F712-C05C-C7E2-03E7-8DADD3751D16}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1399,7 +1399,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6366135E-5564-E027-2AE6-B41FA0F8F131}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08005E07-168F-078F-F819-094FFC8BA7D4}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1430,7 +1430,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1290E540-11C6-C9E2-841C-5DEC914E650B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5091EE92-5998-5DF7-56E2-42535F9C3DF2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1473,7 +1473,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC3D92B7-7D25-4AD5-A7AE-003575723704}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E2B7503-BFEF-4773-AA51-07D71A12E6FF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1511,7 +1511,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00DD08ED-A45C-4AF3-B6EB-089137A00B91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F688B65-2BF5-4EFF-852D-6822A95C6484}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1554,7 +1554,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32CF7C29-6B60-4B7C-9000-4D6968909C1B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9845852-5D98-4CAE-BA93-B8186077DE4A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1867,7 +1867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EBE0AA-43F0-4124-9536-973C1055DF13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6233C86E-9EB3-4598-B433-3DB8ACDE0DBC}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -5114,16 +5114,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="37.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="43.42578125" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="8" max="8" width="47.5703125" customWidth="1"/>
+    <col min="9" max="9" width="89" customWidth="1"/>
+    <col min="10" max="10" width="72.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/FORO_REGIONAL_DA_TRISTEZA.xlsx
+++ b/FORO_REGIONAL_DA_TRISTEZA.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D000500D-F229-4DD4-BB3C-434DBD1A96C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C416C5A2-D724-4B76-8035-832E7E8A002E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="3" r:id="rId1"/>
+    <sheet name="Paineis DARQ" sheetId="4" r:id="rId1"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="1" r:id="rId2"/>
     <sheet name="TCA" sheetId="2" r:id="rId3"/>
+    <sheet name="DGC" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="312">
   <si>
     <t>Número</t>
   </si>
@@ -944,6 +945,21 @@
   </si>
   <si>
     <t>SALA DE AUDIÊNCIAS - 2º JUIZADO - SALA 506</t>
+  </si>
+  <si>
+    <t>TEMÁTICA</t>
+  </si>
+  <si>
+    <t>PROBLEMA</t>
+  </si>
+  <si>
+    <t>Foro Regional da Tristeza</t>
+  </si>
+  <si>
+    <t>MOT-Diversos</t>
+  </si>
+  <si>
+    <t>Demora nos Atestes MOT</t>
   </si>
 </sst>
 </file>
@@ -953,7 +969,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -998,6 +1014,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1012,7 +1041,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1022,6 +1051,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1095,9 +1130,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1142,12 +1177,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{5B463002-A09A-43AC-862A-64FA61122849}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{9BBE5054-132F-4832-8729-E2B0EBDEA1CD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1177,10 +1216,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AAA0048-0D4B-4DB0-AF45-87B706FF6294}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FFD070D-1717-44B2-813A-199ED6E56814}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1218,7 +1257,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCBD577-4CE5-4277-9F9B-8874FCB89E15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2F807D-878E-42BF-A4F1-367350B5B290}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1281,7 +1320,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EC33FD5-7859-4138-9CAE-F1F13D52D054}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B22E6A-1E7D-49F5-8F00-34C668C2590C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1300,7 +1339,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED3DFF8E-2DE0-3EA8-C7E2-ACC4F70F0CF8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6DC5617-700D-F390-5040-10EE004E0C66}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1349,7 +1388,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CC1E26C-978D-722C-4835-2F817AAF20B8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4F30768-9C4D-2FE2-78A4-08723DE62DC6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1368,7 +1407,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D66F712-C05C-C7E2-03E7-8DADD3751D16}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2315244-9C2F-4F08-2669-24086678937F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1399,7 +1438,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08005E07-168F-078F-F819-094FFC8BA7D4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C06BA30E-AB88-602E-1B05-522C8D6B9F62}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1430,7 +1469,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5091EE92-5998-5DF7-56E2-42535F9C3DF2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{684F5713-5B49-742D-3BAA-E2397B8A40F5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1473,7 +1512,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E2B7503-BFEF-4773-AA51-07D71A12E6FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8C51F36-DC1A-41FF-B37F-7C182C5BD697}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1511,7 +1550,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F688B65-2BF5-4EFF-852D-6822A95C6484}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{388EB74C-F993-4B42-9DCF-E03CB3B7E951}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1554,7 +1593,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9845852-5D98-4CAE-BA93-B8186077DE4A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29955B47-9E6D-4970-8663-22CD8729106D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1867,7 +1906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6233C86E-9EB3-4598-B433-3DB8ACDE0DBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C635D7-C468-4C3B-B3E5-36D6225F13E0}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1879,98 +1918,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="19"/>
-    <col min="6" max="6" width="2" style="19" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="19" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="19"/>
+    <col min="1" max="5" width="12.5703125" style="21"/>
+    <col min="6" max="6" width="2" style="21" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="21" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="18"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="18"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="18"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="18"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="18"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="18"/>
+      <c r="F6" s="20"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="18"/>
+      <c r="F7" s="20"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="18"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="18"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="18"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="18"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="18"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="18"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="18"/>
+      <c r="F14" s="20"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="18"/>
+      <c r="F15" s="20"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="18"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="18"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="18"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="18"/>
+      <c r="F19" s="20"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="18"/>
+      <c r="F20" s="20"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="18"/>
+      <c r="F21" s="20"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="18"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="18"/>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="18"/>
+      <c r="F24" s="20"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="18"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="18"/>
+      <c r="F26" s="20"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="18"/>
+      <c r="F27" s="20"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="18"/>
+      <c r="F28" s="20"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="18"/>
+      <c r="F29" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6109,4 +6148,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="88.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/FORO_REGIONAL_DA_TRISTEZA.xlsx
+++ b/FORO_REGIONAL_DA_TRISTEZA.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C416C5A2-D724-4B76-8035-832E7E8A002E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30B1AE91-9E5E-43EB-9AA0-A17D6292CC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="4" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="4" r:id="rId1"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="1" r:id="rId2"/>
     <sheet name="TCA" sheetId="2" r:id="rId3"/>
     <sheet name="DGC" sheetId="3" r:id="rId4"/>
@@ -1186,7 +1186,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{9BBE5054-132F-4832-8729-E2B0EBDEA1CD}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{E03B17FB-4C44-4D1B-96BD-71E4036775FC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1216,10 +1216,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FFD070D-1717-44B2-813A-199ED6E56814}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F58AAE6A-0F83-4E7C-B66D-617805AFEE5B}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1257,7 +1257,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C2F807D-878E-42BF-A4F1-367350B5B290}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B67530C7-67C0-4644-8B4F-1BBF2864BC9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1320,7 +1320,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B22E6A-1E7D-49F5-8F00-34C668C2590C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD0580B-3E9A-4DAA-B340-B09BBDC5C33C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1339,7 +1339,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6DC5617-700D-F390-5040-10EE004E0C66}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0632723-A30F-F4C1-D9F9-40300B9C4EEF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1388,7 +1388,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4F30768-9C4D-2FE2-78A4-08723DE62DC6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CB7E1BC-C042-1D64-F853-C0284D1E8431}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1407,7 +1407,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2315244-9C2F-4F08-2669-24086678937F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2419D66-B392-08CC-631F-9D995FCBADA8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1438,7 +1438,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C06BA30E-AB88-602E-1B05-522C8D6B9F62}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0561A10-3E7C-8B99-C912-E00ABCB0A62E}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1469,7 +1469,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{684F5713-5B49-742D-3BAA-E2397B8A40F5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFAA9BCF-D10B-99C4-AD83-2C9F3BD6DD5D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1512,7 +1512,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8C51F36-DC1A-41FF-B37F-7C182C5BD697}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DCB58FD-D8D8-4770-A0BE-B7F5349C2E25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,7 +1550,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{388EB74C-F993-4B42-9DCF-E03CB3B7E951}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3676B0A0-685C-4877-B1A8-7265C4692185}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1593,7 +1593,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29955B47-9E6D-4970-8663-22CD8729106D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A246D2-DE94-4F69-87E1-BEC9D793AA6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1906,7 +1906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40C635D7-C468-4C3B-B3E5-36D6225F13E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCA7644-A4C2-494C-858A-0E5FFBAA18EB}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/FORO_REGIONAL_DA_TRISTEZA.xlsx
+++ b/FORO_REGIONAL_DA_TRISTEZA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30B1AE91-9E5E-43EB-9AA0-A17D6292CC58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E68DA25-2323-4FBD-AC1D-B7F9C8D49863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1186,7 +1186,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{E03B17FB-4C44-4D1B-96BD-71E4036775FC}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{C5D2CFE7-6D94-4C2D-90B4-380D287D9E2D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1216,10 +1216,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F58AAE6A-0F83-4E7C-B66D-617805AFEE5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D195E8E1-0078-4891-A926-F3BDB027DC78}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1257,7 +1257,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B67530C7-67C0-4644-8B4F-1BBF2864BC9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{921C41E3-AB86-4292-9E48-FB1968E08F10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1320,7 +1320,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDD0580B-3E9A-4DAA-B340-B09BBDC5C33C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{311B29A6-55CB-41EC-A809-33F67DA4E519}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1339,7 +1339,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0632723-A30F-F4C1-D9F9-40300B9C4EEF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2320ACD-733B-CE5A-D415-1A3CAA6D64C5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1388,7 +1388,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CB7E1BC-C042-1D64-F853-C0284D1E8431}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8099BF3-0394-9A88-C231-305B87896903}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1407,7 +1407,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2419D66-B392-08CC-631F-9D995FCBADA8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49108460-6669-AAA2-F6A0-A4823DDC4A2F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1438,7 +1438,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0561A10-3E7C-8B99-C912-E00ABCB0A62E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E415D4B1-5D90-AFE4-0D47-04033408CDA3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1469,7 +1469,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFAA9BCF-D10B-99C4-AD83-2C9F3BD6DD5D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86B20FCA-F452-B8FA-7CDC-97EFC47A6F0B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1512,7 +1512,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DCB58FD-D8D8-4770-A0BE-B7F5349C2E25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0B853C-0CAA-4428-A8F3-1285B974031F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,7 +1550,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3676B0A0-685C-4877-B1A8-7265C4692185}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EFA054B-119A-4A42-87CE-B816DD673BD2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1575,50 +1575,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A246D2-DE94-4F69-87E1-BEC9D793AA6C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1906,7 +1862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCA7644-A4C2-494C-858A-0E5FFBAA18EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B15BB3-C3BF-4462-9E63-C21189DE7580}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/FORO_REGIONAL_DA_TRISTEZA.xlsx
+++ b/FORO_REGIONAL_DA_TRISTEZA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E68DA25-2323-4FBD-AC1D-B7F9C8D49863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B98A3E9-C061-43DA-A71A-D30E724615F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -969,17 +969,9 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1007,8 +999,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1079,21 +1086,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1127,66 +1119,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{C5D2CFE7-6D94-4C2D-90B4-380D287D9E2D}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{A9299341-55D7-4DAF-A4C4-9F89AD4EE480}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1216,7 +1224,7 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D195E8E1-0078-4891-A926-F3BDB027DC78}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E7A6671-6E8D-4879-81BE-80F122EBCD80}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
               <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
@@ -1257,7 +1265,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{921C41E3-AB86-4292-9E48-FB1968E08F10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B282EDA9-7A47-4E09-9125-91D5EB5FD224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1320,7 +1328,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{311B29A6-55CB-41EC-A809-33F67DA4E519}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBE02404-178B-4493-A38D-6E07E0121A3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1339,7 +1347,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2320ACD-733B-CE5A-D415-1A3CAA6D64C5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECF2B9F5-202F-EBC3-41EE-B2AA3ED29F22}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1388,7 +1396,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8099BF3-0394-9A88-C231-305B87896903}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B784886-4E4C-0624-1E01-B74EE90EB8F8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1407,7 +1415,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49108460-6669-AAA2-F6A0-A4823DDC4A2F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA0127EC-5C96-F47A-7DA6-2E2A75D8638F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1438,7 +1446,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E415D4B1-5D90-AFE4-0D47-04033408CDA3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0CEF724-B548-53BD-1738-52AE42C7A808}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1469,7 +1477,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86B20FCA-F452-B8FA-7CDC-97EFC47A6F0B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20571CC3-9963-20B8-24F1-92BC7E217880}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1512,7 +1520,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A0B853C-0CAA-4428-A8F3-1285B974031F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E6B2298-FA47-49B7-B396-55016EDE407C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,7 +1558,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EFA054B-119A-4A42-87CE-B816DD673BD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2384ABA9-CBEC-4303-A67A-A6B6A5F66A8F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1862,7 +1870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B15BB3-C3BF-4462-9E63-C21189DE7580}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7845B455-3020-4E60-80A0-468537A2E693}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1874,98 +1882,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="21"/>
-    <col min="6" max="6" width="2" style="21" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="21" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="21"/>
+    <col min="1" max="5" width="12.5703125" style="22"/>
+    <col min="6" max="6" width="2" style="22" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="22" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="20"/>
+      <c r="F1" s="21"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="20"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="20"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="20"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="20"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="20"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="20"/>
+      <c r="F8" s="21"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="20"/>
+      <c r="F9" s="21"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="20"/>
+      <c r="F10" s="21"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="20"/>
+      <c r="F11" s="21"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="20"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="20"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="20"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="20"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="20"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="20"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="20"/>
+      <c r="F18" s="21"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="20"/>
+      <c r="F19" s="21"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="20"/>
+      <c r="F20" s="21"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="20"/>
+      <c r="F21" s="21"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="20"/>
+      <c r="F22" s="21"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="20"/>
+      <c r="F23" s="21"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="20"/>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="20"/>
+      <c r="F25" s="21"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="20"/>
+      <c r="F26" s="21"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="20"/>
+      <c r="F27" s="21"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="20"/>
+      <c r="F28" s="21"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="20"/>
+      <c r="F29" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5109,16 +5117,16 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="37.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
-    <col min="8" max="8" width="47.5703125" customWidth="1"/>
-    <col min="9" max="9" width="89" customWidth="1"/>
-    <col min="10" max="10" width="72.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="43.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" customWidth="1"/>
+    <col min="10" max="10" width="39.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5160,16 +5168,16 @@
       <c r="A2" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="16">
         <v>27149</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="17">
         <v>20</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="17">
         <v>2</v>
       </c>
       <c r="F2" s="15">
@@ -5187,7 +5195,7 @@
       <c r="J2" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="18">
         <v>2295</v>
       </c>
     </row>
@@ -5195,16 +5203,16 @@
       <c r="A3" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="16">
         <v>98968</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="17">
         <v>1000</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="17">
         <v>100</v>
       </c>
       <c r="F3" s="15">
@@ -5222,7 +5230,7 @@
       <c r="J3" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="18">
         <v>930</v>
       </c>
     </row>
@@ -5230,16 +5238,16 @@
       <c r="A4" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="16">
         <v>3982</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="17">
         <v>1102.5</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="17">
         <v>110.25</v>
       </c>
       <c r="F4" s="15">
@@ -5257,7 +5265,7 @@
       <c r="J4" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="18">
         <v>928</v>
       </c>
     </row>
@@ -5265,16 +5273,16 @@
       <c r="A5" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="16">
         <v>2687</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="17">
         <v>153</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="17">
         <v>15.3</v>
       </c>
       <c r="F5" s="15">
@@ -5292,7 +5300,7 @@
       <c r="J5" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="18">
         <v>32306</v>
       </c>
     </row>
@@ -5300,16 +5308,16 @@
       <c r="A6" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="16">
         <v>27286</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="17">
         <v>248.3</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="17">
         <v>24.83</v>
       </c>
       <c r="F6" s="15">
@@ -5327,7 +5335,7 @@
       <c r="J6" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="18">
         <v>13429</v>
       </c>
     </row>
@@ -5335,16 +5343,16 @@
       <c r="A7" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="16">
         <v>29773</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="17">
         <v>50</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="17">
         <v>5</v>
       </c>
       <c r="F7" s="15">
@@ -5362,7 +5370,7 @@
       <c r="J7" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="18">
         <v>32304</v>
       </c>
     </row>
@@ -5370,16 +5378,16 @@
       <c r="A8" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="16">
         <v>138487</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="17">
         <v>169</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="17">
         <v>16.899999999999999</v>
       </c>
       <c r="F8" s="15">
@@ -5397,7 +5405,7 @@
       <c r="J8" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="18">
         <v>13616</v>
       </c>
     </row>
@@ -5405,16 +5413,16 @@
       <c r="A9" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="16">
         <v>141275</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="17">
         <v>195</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="17">
         <v>19.5</v>
       </c>
       <c r="F9" s="15">
@@ -5432,7 +5440,7 @@
       <c r="J9" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="18">
         <v>32302</v>
       </c>
     </row>
@@ -5440,16 +5448,16 @@
       <c r="A10" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="16">
         <v>154887</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="17">
         <v>281.08</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="17">
         <v>28.11</v>
       </c>
       <c r="F10" s="15">
@@ -5467,7 +5475,7 @@
       <c r="J10" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="18">
         <v>14232</v>
       </c>
     </row>
@@ -5475,16 +5483,16 @@
       <c r="A11" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="16">
         <v>154723</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="17">
         <v>660.92</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="17">
         <v>66.09</v>
       </c>
       <c r="F11" s="15">
@@ -5502,7 +5510,7 @@
       <c r="J11" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="K11" s="17">
+      <c r="K11" s="18">
         <v>32306</v>
       </c>
     </row>
@@ -5510,16 +5518,16 @@
       <c r="A12" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="16">
         <v>154756</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="17">
         <v>660.92</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="17">
         <v>66.09</v>
       </c>
       <c r="F12" s="15">
@@ -5537,7 +5545,7 @@
       <c r="J12" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="18">
         <v>32306</v>
       </c>
     </row>
@@ -5545,16 +5553,16 @@
       <c r="A13" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="16">
         <v>183396</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="17">
         <v>548</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="17">
         <v>54.8</v>
       </c>
       <c r="F13" s="15">
@@ -5572,7 +5580,7 @@
       <c r="J13" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="K13" s="17">
+      <c r="K13" s="18">
         <v>32301</v>
       </c>
     </row>
@@ -5580,16 +5588,16 @@
       <c r="A14" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="16">
         <v>205067</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="17">
         <v>148.96</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="17">
         <v>14.9</v>
       </c>
       <c r="F14" s="15">
@@ -5607,7 +5615,7 @@
       <c r="J14" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="K14" s="17">
+      <c r="K14" s="18">
         <v>32304</v>
       </c>
     </row>
@@ -5615,16 +5623,16 @@
       <c r="A15" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="16">
         <v>216911</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="17">
         <v>298.33</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="17">
         <v>29.83</v>
       </c>
       <c r="F15" s="15">
@@ -5642,7 +5650,7 @@
       <c r="J15" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="K15" s="17">
+      <c r="K15" s="18">
         <v>32306</v>
       </c>
     </row>
@@ -5650,16 +5658,16 @@
       <c r="A16" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="16">
         <v>225055</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="17">
         <v>134</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="17">
         <v>13.4</v>
       </c>
       <c r="F16" s="15">
@@ -5677,7 +5685,7 @@
       <c r="J16" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="K16" s="17">
+      <c r="K16" s="18">
         <v>930</v>
       </c>
     </row>
@@ -5685,16 +5693,16 @@
       <c r="A17" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="16">
         <v>225231</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="17">
         <v>480.1</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="17">
         <v>48.01</v>
       </c>
       <c r="F17" s="15">
@@ -5712,7 +5720,7 @@
       <c r="J17" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="K17" s="17">
+      <c r="K17" s="18">
         <v>32301</v>
       </c>
     </row>
@@ -5720,16 +5728,16 @@
       <c r="A18" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="16">
         <v>258794</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="17">
         <v>185</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="17">
         <v>18.5</v>
       </c>
       <c r="F18" s="15">
@@ -5747,7 +5755,7 @@
       <c r="J18" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="K18" s="17">
+      <c r="K18" s="18">
         <v>930</v>
       </c>
     </row>
@@ -5755,16 +5763,16 @@
       <c r="A19" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="16">
         <v>282803</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="17">
         <v>269.99</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="17">
         <v>27</v>
       </c>
       <c r="F19" s="15">
@@ -5782,7 +5790,7 @@
       <c r="J19" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="K19" s="17">
+      <c r="K19" s="18">
         <v>928</v>
       </c>
     </row>
@@ -5790,16 +5798,16 @@
       <c r="A20" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="16">
         <v>309196</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="17">
         <v>800</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="17">
         <v>80</v>
       </c>
       <c r="F20" s="15">
@@ -5817,7 +5825,7 @@
       <c r="J20" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="K20" s="17">
+      <c r="K20" s="18">
         <v>14232</v>
       </c>
     </row>
@@ -5825,16 +5833,16 @@
       <c r="A21" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="16">
         <v>249680</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="17">
         <v>2410</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="17">
         <v>241</v>
       </c>
       <c r="F21" s="15">
@@ -5852,7 +5860,7 @@
       <c r="J21" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="K21" s="17">
+      <c r="K21" s="18">
         <v>32306</v>
       </c>
     </row>
@@ -5860,16 +5868,16 @@
       <c r="A22" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="16">
         <v>341660</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="17">
         <v>221</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="17">
         <v>22.1</v>
       </c>
       <c r="F22" s="15">
@@ -5887,7 +5895,7 @@
       <c r="J22" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="K22" s="17">
+      <c r="K22" s="18">
         <v>930</v>
       </c>
     </row>
@@ -5895,16 +5903,16 @@
       <c r="A23" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="16">
         <v>389797</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="17">
         <v>307</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="17">
         <v>30.7</v>
       </c>
       <c r="F23" s="15">
@@ -5922,7 +5930,7 @@
       <c r="J23" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="K23" s="17">
+      <c r="K23" s="18">
         <v>930</v>
       </c>
     </row>
@@ -5930,16 +5938,16 @@
       <c r="A24" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="16">
         <v>391851</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="17">
         <v>296.60000000000002</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="17">
         <v>29.66</v>
       </c>
       <c r="F24" s="15">
@@ -5957,7 +5965,7 @@
       <c r="J24" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="K24" s="17">
+      <c r="K24" s="18">
         <v>32301</v>
       </c>
     </row>
@@ -5965,16 +5973,16 @@
       <c r="A25" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="16">
         <v>432185</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="17">
         <v>365.25</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="17">
         <v>36.53</v>
       </c>
       <c r="F25" s="15">
@@ -5992,7 +6000,7 @@
       <c r="J25" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="K25" s="17">
+      <c r="K25" s="18">
         <v>930</v>
       </c>
     </row>
@@ -6000,16 +6008,16 @@
       <c r="A26" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="16">
         <v>509824</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="17">
         <v>1450</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="17">
         <v>732.58</v>
       </c>
       <c r="F26" s="15">
@@ -6027,7 +6035,7 @@
       <c r="J26" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="K26" s="17">
+      <c r="K26" s="18">
         <v>2295</v>
       </c>
     </row>
@@ -6035,16 +6043,16 @@
       <c r="A27" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="16">
         <v>538810</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="17">
         <v>2529.1799999999998</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="17">
         <v>2131.02</v>
       </c>
       <c r="F27" s="15">
@@ -6062,7 +6070,7 @@
       <c r="J27" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="K27" s="17">
+      <c r="K27" s="18">
         <v>9159</v>
       </c>
     </row>
@@ -6070,16 +6078,16 @@
       <c r="A28" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="16">
         <v>538972</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="17">
         <v>2529.1799999999998</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="17">
         <v>2131.02</v>
       </c>
       <c r="F28" s="15">
@@ -6097,7 +6105,7 @@
       <c r="J28" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="K28" s="17">
+      <c r="K28" s="18">
         <v>9164</v>
       </c>
     </row>
@@ -6120,24 +6128,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>309</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="20" t="s">
         <v>311</v>
       </c>
     </row>
